--- a/docs/Classic_MIDI_FeatherWing_BOM.xlsx
+++ b/docs/Classic_MIDI_FeatherWing_BOM.xlsx
@@ -1,19 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jan\Documents\GitHub\Classic_MIDI_FeatherWing\docs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B02704-268C-40E8-B809-2E11DC800608}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6023890-F7C8-4208-AC11-CA8C3CE73D28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2985" yWindow="-14415" windowWidth="21645" windowHeight="13410" xr2:uid="{1E4BD1ED-C790-476C-A0B0-EEC928202A78}"/>
+    <workbookView xWindow="3015" yWindow="-15015" windowWidth="21645" windowHeight="14340" xr2:uid="{1E4BD1ED-C790-476C-A0B0-EEC928202A78}"/>
   </bookViews>
   <sheets>
-    <sheet name="Waveform_Generator" sheetId="1" r:id="rId1"/>
+    <sheet name="Classic_MIDI_FeatherWing" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -566,16 +561,16 @@
   <dimension ref="A2:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="84.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="87" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
